--- a/biology/Médecine/Idébénone/Idébénone.xlsx
+++ b/biology/Médecine/Idébénone/Idébénone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Id%C3%A9b%C3%A9none</t>
+          <t>Idébénone</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'idébénone est une molécule de type quinone, en cours de test comme médicaments dans certaines myopathies.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Id%C3%A9b%C3%A9none</t>
+          <t>Idébénone</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un analogue synthétique du coenzyme Q10[2] ayant un rôle antioxydant, mais parfois aussi pro-oxydant[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un analogue synthétique du coenzyme Q10 ayant un rôle antioxydant, mais parfois aussi pro-oxydant.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Id%C3%A9b%C3%A9none</t>
+          <t>Idébénone</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans la myopathie de Duchenne, l'idébénone améliore la fonction cardiaque et respiratoire[4], essentiellement chez les patients qui ne sont pas déjà sous corticoïdes[5], l'efficacité étant moindre s'ils sont déjà sous ces derniers[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la myopathie de Duchenne, l'idébénone améliore la fonction cardiaque et respiratoire, essentiellement chez les patients qui ne sont pas déjà sous corticoïdes, l'efficacité étant moindre s'ils sont déjà sous ces derniers.
 </t>
         </is>
       </c>
